--- a/version 03/input_output/output.xlsx
+++ b/version 03/input_output/output.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Artificial Bee Colony\Implementation\Knapsack\knapsackProblem_Modified_ABC\input_output\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Artificial Bee Colony\Implementation\Knapsack\knapsackProblem_Classic_ABC\version 03\input_output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A69CA444-3BE3-4B34-99E2-529E8E2A2826}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{476E3DF3-D3F4-4E6F-B9B5-5EFD1D0E0E92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12" yWindow="312" windowWidth="10872" windowHeight="11220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -400,15 +400,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F3"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.77734375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.88671875" bestFit="1" customWidth="1"/>
@@ -436,6 +435,206 @@
         <v>5</v>
       </c>
     </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>69771</v>
+      </c>
+      <c r="C2">
+        <v>6610</v>
+      </c>
+      <c r="D2">
+        <v>34.877906799316413</v>
+      </c>
+      <c r="E2">
+        <v>18977</v>
+      </c>
+      <c r="F2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>69342</v>
+      </c>
+      <c r="C3">
+        <v>8481</v>
+      </c>
+      <c r="D3">
+        <v>45.788062810897827</v>
+      </c>
+      <c r="E3">
+        <v>18801</v>
+      </c>
+      <c r="F3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>190565</v>
+      </c>
+      <c r="C4">
+        <v>290</v>
+      </c>
+      <c r="D4">
+        <v>15.37570357322693</v>
+      </c>
+      <c r="E4">
+        <v>1999</v>
+      </c>
+      <c r="F4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>188241</v>
+      </c>
+      <c r="C5">
+        <v>255</v>
+      </c>
+      <c r="D5">
+        <v>13.51781487464905</v>
+      </c>
+      <c r="E5">
+        <v>1618</v>
+      </c>
+      <c r="F5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>365438</v>
+      </c>
+      <c r="C6">
+        <v>486</v>
+      </c>
+      <c r="D6">
+        <v>53.930134534835823</v>
+      </c>
+      <c r="E6">
+        <v>892</v>
+      </c>
+      <c r="F6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>74160</v>
+      </c>
+      <c r="C7">
+        <v>73</v>
+      </c>
+      <c r="D7">
+        <v>3.995342493057251</v>
+      </c>
+      <c r="E7">
+        <v>2116</v>
+      </c>
+      <c r="F7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>73087</v>
+      </c>
+      <c r="C8">
+        <v>79</v>
+      </c>
+      <c r="D8">
+        <v>5.7033231258392334</v>
+      </c>
+      <c r="E8">
+        <v>1717</v>
+      </c>
+      <c r="F8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>187428</v>
+      </c>
+      <c r="C9">
+        <v>281</v>
+      </c>
+      <c r="D9">
+        <v>25.20179200172424</v>
+      </c>
+      <c r="E9">
+        <v>605</v>
+      </c>
+      <c r="F9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>192348</v>
+      </c>
+      <c r="C10">
+        <v>211</v>
+      </c>
+      <c r="D10">
+        <v>28.320268630981449</v>
+      </c>
+      <c r="E10">
+        <v>1032</v>
+      </c>
+      <c r="F10">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>367316</v>
+      </c>
+      <c r="C11">
+        <v>396</v>
+      </c>
+      <c r="D11">
+        <v>74.687691450119019</v>
+      </c>
+      <c r="E11">
+        <v>514</v>
+      </c>
+      <c r="F11">
+        <v>100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
